--- a/data/README_tables.xlsx
+++ b/data/README_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/canada_metal_sustainability_db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="8_{92941A98-A6B5-4821-9974-063115F9198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF035717-01AE-4A15-9EBD-6A600B56C8D8}"/>
+  <xr:revisionPtr revIDLastSave="552" documentId="8_{92941A98-A6B5-4821-9974-063115F9198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE311FE-E040-4891-862C-9745AC2CAB50}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="1197">
   <si>
     <t>province</t>
   </si>
@@ -3319,9 +3319,6 @@
     <t>Unit of resources</t>
   </si>
   <si>
-    <t>Surface of polygons given by Tang &amp; Werner (2023)</t>
-  </si>
-  <si>
     <t>facility_group</t>
   </si>
   <si>
@@ -3714,6 +3711,12 @@
   </si>
   <si>
     <t>propane_consumption</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>Surface of polygons given by Tang &amp; Werner (2023) and Maus et al (2022)</t>
   </si>
 </sst>
 </file>
@@ -3799,7 +3802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3816,7 +3819,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4174,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9055A0F8-7DF9-4E4E-AC4E-033040C47C7A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4199,7 +4201,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1195</v>
       </c>
       <c r="B2" t="s">
         <v>976</v>
@@ -4213,7 +4215,7 @@
         <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4245,15 +4247,15 @@
         <v>975</v>
       </c>
       <c r="B7" t="s">
-        <v>1064</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B8" t="s">
         <v>1069</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4261,7 +4263,7 @@
         <v>1036</v>
       </c>
       <c r="B9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4269,7 +4271,7 @@
         <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -4277,24 +4279,24 @@
         <v>593</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B14" s="8"/>
     </row>
@@ -4343,7 +4345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B86DB3-C214-4201-B963-A570BEC22A6C}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -4470,21 +4472,21 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C11" t="s">
         <v>1082</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4495,7 +4497,7 @@
         <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5041,598 +5043,598 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B68" t="s">
         <v>995</v>
       </c>
       <c r="C68" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D68" t="s">
         <v>1085</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>1086</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B69" t="s">
         <v>1078</v>
       </c>
-      <c r="B69" t="s">
-        <v>1079</v>
-      </c>
       <c r="C69" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D69" t="s">
         <v>1088</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>1089</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B70" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C70" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E70" t="s">
         <v>1091</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B71" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C71" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E71" t="s">
         <v>1093</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B72" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C72" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E72" t="s">
         <v>1095</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B73" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C73" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E73" t="s">
         <v>1097</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B74" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C74" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E74" t="s">
         <v>1099</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B75" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C75" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E75" t="s">
         <v>1101</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B76" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C76" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E76" t="s">
         <v>1103</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B77" t="s">
         <v>161</v>
       </c>
       <c r="C77" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E77" t="s">
         <v>1105</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B78" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C78" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D78" t="s">
         <v>1107</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>1108</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B79" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C79" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E79" t="s">
         <v>1149</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B82" t="s">
         <v>1184</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B83" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B84" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B85" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B88" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B89" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B90" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B91" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B92" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B93" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B94" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B95" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B96" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B97" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C100" t="s">
         <v>1110</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E100" t="s">
         <v>1111</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C101" t="s">
         <v>1113</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E101" t="s">
         <v>1114</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C102" t="s">
         <v>1116</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E102" t="s">
         <v>1117</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C103" t="s">
         <v>1119</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>1120</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>1121</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C104" t="s">
         <v>1123</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E104" t="s">
         <v>1124</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C105" t="s">
         <v>1126</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E105" t="s">
         <v>1127</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C106" t="s">
         <v>1129</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>1130</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>1131</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C107" t="s">
         <v>1133</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E107" t="s">
         <v>1134</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C108" t="s">
         <v>1136</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E108" t="s">
         <v>1137</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C109" t="s">
         <v>1139</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E109" t="s">
         <v>1140</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C110" t="s">
         <v>1142</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E110" t="s">
         <v>1143</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C111" t="s">
         <v>1145</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E111" t="s">
         <v>1146</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C112" t="s">
         <v>1148</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E112" t="s">
         <v>1149</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C113" t="s">
         <v>1151</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E113" t="s">
         <v>1152</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C114" t="s">
         <v>1154</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E114" t="s">
         <v>1155</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C115" t="s">
         <v>1157</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E115" t="s">
         <v>1158</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C116" t="s">
         <v>1160</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E116" t="s">
         <v>1161</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C117" t="s">
         <v>1163</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E117" t="s">
         <v>1164</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C118" t="s">
         <v>1166</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E118" t="s">
         <v>1167</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C119" t="s">
         <v>1169</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>1170</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>1171</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -13132,10 +13134,10 @@
         <v>292</v>
       </c>
       <c r="B4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C4" t="s">
         <v>1065</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1066</v>
       </c>
       <c r="D4" t="s">
         <v>1033</v>
@@ -13230,10 +13232,10 @@
         <v>292</v>
       </c>
       <c r="B11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C11" t="s">
         <v>1067</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1068</v>
       </c>
       <c r="D11" t="s">
         <v>1034</v>
